--- a/src/pandorafits/fileformats/nirda-headers-level2.xlsx
+++ b/src/pandorafits/fileformats/nirda-headers-level2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chedges/Pandora/repos/pandora-fits/src/pandorafits/fileformats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38325E6F-C271-764F-9EB7-A246ADFC67BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA11370-D5BD-7F4B-824D-717257EEC8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17060" xr2:uid="{B6A127EC-86E5-1348-8EA3-CDC4E3346098}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="185">
   <si>
     <t>SIMPLE</t>
   </si>
@@ -280,18 +280,6 @@
     <t>extension name</t>
   </si>
   <si>
-    <t>TTYPE1</t>
-  </si>
-  <si>
-    <t>TFORM1</t>
-  </si>
-  <si>
-    <t>TUNIT1</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>count</t>
   </si>
   <si>
@@ -403,21 +391,12 @@
     <t>PMRA</t>
   </si>
   <si>
-    <t>yr] RA proper motion</t>
-  </si>
-  <si>
     <t>PMDEC</t>
   </si>
   <si>
-    <t>yr] Dec proper motion</t>
-  </si>
-  <si>
     <t>PMTOTAL</t>
   </si>
   <si>
-    <t>yr] total proper motion</t>
-  </si>
-  <si>
     <t>VISMAG</t>
   </si>
   <si>
@@ -496,48 +475,18 @@
     <t>image is non-linearity corrected</t>
   </si>
   <si>
-    <t>data title: calibrated pixel flux</t>
-  </si>
-  <si>
-    <t>data format: images of 32 bit floats</t>
-  </si>
-  <si>
     <t>data units: flux units</t>
   </si>
   <si>
-    <t>FLUX</t>
-  </si>
-  <si>
-    <t>data title: calibrated pixel flux error</t>
-  </si>
-  <si>
     <t>ERR</t>
   </si>
   <si>
-    <t>FLUX_ERR</t>
-  </si>
-  <si>
-    <t>data title: pixel data quality</t>
-  </si>
-  <si>
-    <t>data format: images of 16 bit uint</t>
-  </si>
-  <si>
     <t>QUALITY</t>
   </si>
   <si>
-    <t>data title: bit values describing apertures</t>
-  </si>
-  <si>
     <t>APERTURE</t>
   </si>
   <si>
-    <t>data title: wavelength solution per pixel</t>
-  </si>
-  <si>
-    <t>data format: image of 32 bit floats</t>
-  </si>
-  <si>
     <t>data units: micron</t>
   </si>
   <si>
@@ -545,6 +494,108 @@
   </si>
   <si>
     <t>micron</t>
+  </si>
+  <si>
+    <t>FLATFILE</t>
+  </si>
+  <si>
+    <t>filename of flat applied</t>
+  </si>
+  <si>
+    <t>LINFILE</t>
+  </si>
+  <si>
+    <t>BIASFILE</t>
+  </si>
+  <si>
+    <t>DARKFILE</t>
+  </si>
+  <si>
+    <t>filename of bias applied</t>
+  </si>
+  <si>
+    <t>filename of dark applied</t>
+  </si>
+  <si>
+    <t>filename of linearity applied</t>
+  </si>
+  <si>
+    <t>BADPIX</t>
+  </si>
+  <si>
+    <t>bad pixels added to quality mask</t>
+  </si>
+  <si>
+    <t>READNSE</t>
+  </si>
+  <si>
+    <t>errors have read noise included</t>
+  </si>
+  <si>
+    <t>BKG</t>
+  </si>
+  <si>
+    <t>images are background corrected</t>
+  </si>
+  <si>
+    <t>GAIN</t>
+  </si>
+  <si>
+    <t>images are gain corrected</t>
+  </si>
+  <si>
+    <t>WCSCALC</t>
+  </si>
+  <si>
+    <t>WCS has been calculated</t>
+  </si>
+  <si>
+    <t>PSFFILE</t>
+  </si>
+  <si>
+    <t>SIPFILE</t>
+  </si>
+  <si>
+    <t>APERCALC</t>
+  </si>
+  <si>
+    <t>aperture has been calculated</t>
+  </si>
+  <si>
+    <t>WAVCALC</t>
+  </si>
+  <si>
+    <t>wavelength has been calculated</t>
+  </si>
+  <si>
+    <t>filename of SIP distortion coefficients</t>
+  </si>
+  <si>
+    <t>filename of the PSF model used</t>
+  </si>
+  <si>
+    <t>GAINFILE</t>
+  </si>
+  <si>
+    <t>filename of the gain used</t>
+  </si>
+  <si>
+    <t>FILENAME</t>
+  </si>
+  <si>
+    <t>name of this file</t>
+  </si>
+  <si>
+    <t>[mas/yr] RA proper motion</t>
+  </si>
+  <si>
+    <t>[mas/yr] total proper motion</t>
+  </si>
+  <si>
+    <t>[mas/yr] Dec proper motion</t>
+  </si>
+  <si>
+    <t>UNIT</t>
   </si>
 </sst>
 </file>
@@ -924,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81127257-918B-0849-8077-19480435CD41}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1040,7 +1091,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1064,167 +1115,167 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
         <v>62</v>
@@ -1232,306 +1283,459 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
         <v>90</v>
-      </c>
-      <c r="C40" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
         <v>91</v>
-      </c>
-      <c r="C41" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C57" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C68" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>165</v>
+      </c>
+      <c r="B70" t="b">
+        <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>136</v>
+      </c>
+      <c r="B71" t="b">
+        <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>138</v>
+      </c>
+      <c r="B72" t="b">
+        <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>151</v>
+      </c>
+      <c r="C84" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="C86" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1541,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83271CB-FC54-E142-86E3-37282DC63805}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A10" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1570,7 +1774,7 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -1627,7 +1831,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
         <v>78</v>
@@ -1635,35 +1839,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" t="s">
         <v>79</v>
       </c>
-      <c r="B9" t="s">
-        <v>154</v>
-      </c>
       <c r="C9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1673,10 +1855,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464CFD8D-6090-784A-A87A-8D205D575605}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1700,7 +1882,7 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -1757,7 +1939,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
         <v>78</v>
@@ -1765,35 +1947,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" t="s">
         <v>79</v>
       </c>
-      <c r="B9" t="s">
-        <v>157</v>
-      </c>
       <c r="C9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1803,10 +1963,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA1D9B4-C4B3-0143-8B55-73E41309D756}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1831,7 +1991,7 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -1880,32 +2040,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1915,10 +2053,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB9922E-BE62-A14E-ACA1-9E490F788CC2}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A9" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1944,7 +2082,7 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -1993,32 +2131,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2028,10 +2144,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24B9E76-91D7-354A-843C-586D99621151}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2056,7 +2172,7 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
@@ -2105,7 +2221,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
         <v>78</v>
@@ -2113,35 +2229,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
